--- a/hw/hw8_dilly_beans_one.xlsx
+++ b/hw/hw8_dilly_beans_one.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Q2-Farm" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>crock</t>
   </si>
@@ -40,15 +41,54 @@
   <si>
     <t>short</t>
   </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>Disease Trt</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Variety</t>
+  </si>
+  <si>
+    <t>resp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,10 +114,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,13 +666,933 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="3">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2">
+        <v>47.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -637,4 +1606,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>